--- a/biology/Zoologie/Acanthosaura_crucigera/Acanthosaura_crucigera.xlsx
+++ b/biology/Zoologie/Acanthosaura_crucigera/Acanthosaura_crucigera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Acanthosaura crucigera ou Acanthosaure de Boulenger ou Dragon des montagnes est une espèce de sauriens de la famille des Agamidae[1].
-Il s'appelle en Thaïlande กิ้งก่าเขาหนามสั้น[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acanthosaura crucigera ou Acanthosaure de Boulenger ou Dragon des montagnes est une espèce de sauriens de la famille des Agamidae.
+Il s'appelle en Thaïlande กิ้งก่าเขาหนามสั้น.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Birmanie, en Thaïlande, en Malaisie péninsulaire et au Cambodge[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Birmanie, en Thaïlande, en Malaisie péninsulaire et au Cambodge.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'acanthosaure de Boulenger vit à l'ombre de la canopée dans les forêts tropicales humides.
 </t>
@@ -574,12 +590,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce lézard est diurne et fortement arboricole. Il ne regagne que très rarement le sol.
 Il mesure de 26 à 30 cm de longueur.
 Sa couleur brun-olive et verte lui permet d'être difficilement détecté par les prédateurs. De plus il se tient très souvent immobile, accroché verticalement à un tronc d'arbre, pour ne pas être repéré.
-Il a une grande crête d'épines sur la nuque. Le mâle a aussi des épines au-dessus de leurs yeux. Ses yeux sont orange avec des pupilles rondes[3].
+Il a une grande crête d'épines sur la nuque. Le mâle a aussi des épines au-dessus de leurs yeux. Ses yeux sont orange avec des pupilles rondes.
 </t>
         </is>
       </c>
@@ -608,9 +626,11 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'acanthosaure de Boulenger mange des insectes[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'acanthosaure de Boulenger mange des insectes.
 </t>
         </is>
       </c>
@@ -639,9 +659,11 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle, ovipare, dépose dans un terrier au sol ses 10 à12 œufs[5].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle, ovipare, dépose dans un terrier au sol ses 10 à12 œufs.
 </t>
         </is>
       </c>
@@ -670,7 +692,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Boulenger, 1885 : Catalogue of the lizards in the British Museum (Natural History) I. Geckonidae, Eublepharidae, Uroplatidae, Pygopodidae, Agamidae, Second edition, London, vol. 1, p. 1-436 (texte intégral).</t>
         </is>
